--- a/jour30.xlsx
+++ b/jour30.xlsx
@@ -40,121 +40,121 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Diop']</t>
-  </si>
-  <si>
-    <t>['Spierings']</t>
+    <t>['Balde', 'Porozo', 'Balde']</t>
+  </si>
+  <si>
+    <t>['Maripan', 'Embolo', 'Serrano']</t>
+  </si>
+  <si>
+    <t>['Corduan']</t>
+  </si>
+  <si>
+    <t>['Sainte-Luce']</t>
+  </si>
+  <si>
+    <t>['Pallois', 'Girotto']</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
-    <t>['Gonzalez', 'Vidal']</t>
-  </si>
-  <si>
-    <t>['H.Diallo', 'Sanson']</t>
-  </si>
-  <si>
-    <t>['Bain', 'Autret']</t>
-  </si>
-  <si>
-    <t>['Ben_Seguir', 'Sibide']</t>
-  </si>
-  <si>
-    <t>['Majer', 'Gouiri']</t>
-  </si>
-  <si>
-    <t>['Ganago', 'Delort']</t>
-  </si>
-  <si>
-    <t>['Balde', 'Chavalerin']</t>
+    <t>['Beka']</t>
+  </si>
+  <si>
+    <t>['Ponceau', 'Le_Goff']</t>
+  </si>
+  <si>
+    <t>['Gouiri', 'Terrier']</t>
+  </si>
+  <si>
+    <t>['Bellegarde', 'Mothiba']</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Brest</t>
   </si>
   <si>
     <t>Nice</t>
   </si>
   <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
     <t>Toulouse</t>
   </si>
   <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>['Le_Douaron']</t>
-  </si>
-  <si>
-    <t>['Gusto', 'Tagliafico', 'Cherki', 'Tagliafico']</t>
-  </si>
-  <si>
-    <t>['Ganiou', 'Gradit']</t>
-  </si>
-  <si>
-    <t>['Sanches']</t>
-  </si>
-  <si>
-    <t>['Gudmundsson', 'Fonte']</t>
-  </si>
-  <si>
-    <t>['Borges', 'Wieteska']</t>
-  </si>
-  <si>
-    <t>['Camara']</t>
-  </si>
-  <si>
-    <t>['Mavididi']</t>
-  </si>
-  <si>
-    <t>['Le_Fee', 'Pelon']</t>
+    <t>['Balerdi', 'Clauss', 'Bailly']</t>
+  </si>
+  <si>
+    <t>['Martin', 'Andre']</t>
+  </si>
+  <si>
+    <t>['Lepenant', 'Bercola', 'Sanchez']</t>
+  </si>
+  <si>
+    <t>['Diallo', 'Hamouma']</t>
+  </si>
+  <si>
+    <t>['Lopy']</t>
+  </si>
+  <si>
+    <t>['Neymar', 'Sanches']</t>
+  </si>
+  <si>
+    <t>['Da_Costa', 'Jeanvier', 'Pellenard']</t>
+  </si>
+  <si>
+    <t>['Sylla', 'Pereira']</t>
+  </si>
+  <si>
+    <t>['Healey', 'Dejaegere']</t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -558,10 +558,10 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
@@ -570,7 +570,7 @@
         <v>38</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -578,7 +578,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -587,19 +587,19 @@
         <v>19</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -607,7 +607,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -616,19 +616,19 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -636,7 +636,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -645,7 +645,7 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -654,7 +654,7 @@
         <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -683,7 +683,7 @@
         <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -694,7 +694,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -703,7 +703,7 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -712,7 +712,7 @@
         <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -723,7 +723,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -732,19 +732,19 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -764,16 +764,16 @@
         <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -793,7 +793,7 @@
         <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" t="s">
         <v>36</v>
@@ -802,7 +802,7 @@
         <v>45</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:9">

--- a/jour30.xlsx
+++ b/jour30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,121 +40,124 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Balde', 'Porozo', 'Balde']</t>
-  </si>
-  <si>
-    <t>['Maripan', 'Embolo', 'Serrano']</t>
-  </si>
-  <si>
-    <t>['Corduan']</t>
-  </si>
-  <si>
-    <t>['Sainte-Luce']</t>
-  </si>
-  <si>
-    <t>['Pallois', 'Girotto']</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>['Beka']</t>
-  </si>
-  <si>
-    <t>['Ponceau', 'Le_Goff']</t>
-  </si>
-  <si>
-    <t>['Gouiri', 'Terrier']</t>
+    <t>['Kabore', 'Payet']</t>
+  </si>
+  <si>
+    <t>['Neymar', 'Verrati', 'Soler']</t>
+  </si>
+  <si>
+    <t>['Coco']</t>
+  </si>
+  <si>
+    <t>['Ribeiro', 'David']</t>
+  </si>
+  <si>
+    <t>['Laporte', 'Pelon']</t>
+  </si>
+  <si>
+    <t>['Khazri', 'Nordin']</t>
+  </si>
+  <si>
+    <t>['Dugimont', 'Pellenard']</t>
+  </si>
+  <si>
+    <t>['Henrique', 'Maripan']</t>
+  </si>
+  <si>
+    <t>['Assignon']</t>
+  </si>
+  <si>
+    <t>['Dejaegere', 'Dallinga']</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>['Pereira']</t>
   </si>
   <si>
     <t>['Bellegarde', 'Mothiba']</t>
   </si>
   <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>['Balerdi', 'Clauss', 'Bailly']</t>
-  </si>
-  <si>
-    <t>['Martin', 'Andre']</t>
-  </si>
-  <si>
-    <t>['Lepenant', 'Bercola', 'Sanchez']</t>
-  </si>
-  <si>
-    <t>['Diallo', 'Hamouma']</t>
-  </si>
-  <si>
-    <t>['Lopy']</t>
-  </si>
-  <si>
-    <t>['Neymar', 'Sanches']</t>
-  </si>
-  <si>
-    <t>['Da_Costa', 'Jeanvier', 'Pellenard']</t>
-  </si>
-  <si>
-    <t>['Sylla', 'Pereira']</t>
-  </si>
-  <si>
-    <t>['Healey', 'Dejaegere']</t>
+    <t>['Tolisso']</t>
+  </si>
+  <si>
+    <t>['Gastien', 'Gastien']</t>
+  </si>
+  <si>
+    <t>['Masson']</t>
+  </si>
+  <si>
+    <t>['Lopez']</t>
+  </si>
+  <si>
+    <t>['Vidal']</t>
+  </si>
+  <si>
+    <t>['Serhuis', 'Moalida', 'Balogin']</t>
+  </si>
+  <si>
+    <t>['Mounie', 'Mounie']</t>
+  </si>
+  <si>
+    <t>['Dante', 'Laborde']</t>
   </si>
 </sst>
 </file>
@@ -549,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -558,10 +561,10 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
@@ -570,7 +573,7 @@
         <v>38</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -619,7 +622,7 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
@@ -628,7 +631,7 @@
         <v>40</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -636,7 +639,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -645,7 +648,7 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -694,7 +697,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -703,10 +706,10 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
@@ -715,7 +718,7 @@
         <v>43</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -723,7 +726,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -732,10 +735,10 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
@@ -744,7 +747,7 @@
         <v>44</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -764,16 +767,16 @@
         <v>2</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -781,7 +784,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -790,7 +793,7 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -799,7 +802,7 @@
         <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I10">
         <v>2</v>
@@ -828,7 +831,7 @@
         <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11">
         <v>2</v>

--- a/jour30.xlsx
+++ b/jour30.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
+  <si>
+    <t>Score dom</t>
+  </si>
   <si>
     <t>Points dom</t>
   </si>
@@ -40,124 +43,118 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Kabore', 'Payet']</t>
-  </si>
-  <si>
-    <t>['Neymar', 'Verrati', 'Soler']</t>
-  </si>
-  <si>
-    <t>['Coco']</t>
-  </si>
-  <si>
-    <t>['Ribeiro', 'David']</t>
-  </si>
-  <si>
-    <t>['Laporte', 'Pelon']</t>
-  </si>
-  <si>
-    <t>['Khazri', 'Nordin']</t>
-  </si>
-  <si>
-    <t>['Dugimont', 'Pellenard']</t>
-  </si>
-  <si>
-    <t>['Henrique', 'Maripan']</t>
-  </si>
-  <si>
-    <t>['Assignon']</t>
-  </si>
-  <si>
-    <t>['Dejaegere', 'Dallinga']</t>
+    <t>Score exte</t>
+  </si>
+  <si>
+    <t>['Maouassa', 'Germain', 'Nordin', 'Savanier']</t>
+  </si>
+  <si>
+    <t>['Blas', 'Pallois', 'Simon', 'Simon']</t>
+  </si>
+  <si>
+    <t>['Laporte', 'Silva', 'Talbi']</t>
+  </si>
+  <si>
+    <t>['Maurer', 'Borges', 'Gastien']</t>
+  </si>
+  <si>
+    <t>['Cherki', 'Tagliafico', 'Tagliafico']</t>
+  </si>
+  <si>
+    <t>['Ganiou', 'Sylla', 'Medina']</t>
+  </si>
+  <si>
+    <t>['Gigot', 'Harit']</t>
+  </si>
+  <si>
+    <t>['Traore', 'Gouiri']</t>
+  </si>
+  <si>
+    <t>['Alioui', 'Corduan']</t>
+  </si>
+  <si>
+    <t>['Aboukhlal', 'Onaiwu']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Lens</t>
   </si>
   <si>
     <t>OM</t>
   </si>
   <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Nantes</t>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Reims</t>
   </si>
   <si>
     <t>Lille</t>
   </si>
   <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
+    <t>Brest</t>
   </si>
   <si>
     <t>AS Monaco</t>
   </si>
   <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
     <t>Ajaccio</t>
   </si>
   <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
     <t>Nice</t>
   </si>
   <si>
-    <t>['Pereira']</t>
-  </si>
-  <si>
-    <t>['Bellegarde', 'Mothiba']</t>
-  </si>
-  <si>
-    <t>['Tolisso']</t>
-  </si>
-  <si>
-    <t>['Gastien', 'Gastien']</t>
-  </si>
-  <si>
-    <t>['Masson']</t>
-  </si>
-  <si>
-    <t>['Lopez']</t>
-  </si>
-  <si>
-    <t>['Vidal']</t>
-  </si>
-  <si>
-    <t>['Serhuis', 'Moalida', 'Balogin']</t>
-  </si>
-  <si>
-    <t>['Mounie', 'Mounie']</t>
-  </si>
-  <si>
-    <t>['Dante', 'Laborde']</t>
+    <t>['ChaÃ¯bi', 'Healey']</t>
+  </si>
+  <si>
+    <t>['Versini', 'Wieteska', 'Wieteska', 'Bayo']</t>
+  </si>
+  <si>
+    <t>['Gudmundsson', 'Yoro']</t>
+  </si>
+  <si>
+    <t>['Del_Castillo']</t>
+  </si>
+  <si>
+    <t>['Henrique', 'Jakobs', 'Aguilar']</t>
+  </si>
+  <si>
+    <t>['Diallo', 'Diallo', 'Roure']</t>
+  </si>
+  <si>
+    <t>['Maouassa', 'Germain']</t>
+  </si>
+  <si>
+    <t>['Wahi', 'Nordin']</t>
+  </si>
+  <si>
+    <t>['Moalida', 'Serhuis']</t>
+  </si>
+  <si>
+    <t>['Brahimi', 'Diop', 'Attal']</t>
   </si>
 </sst>
 </file>
@@ -515,13 +512,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -546,295 +543,396 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>54</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="K2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>41</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>50</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B5">
+        <v>45</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>44</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>28</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>52</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>45</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>45</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
         <v>18</v>
       </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>42</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
         <v>19</v>
       </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>51</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
         <v>20</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="E12" t="s">
         <v>31</v>
       </c>
-      <c r="H5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12">
         <v>42</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
-      <c r="G9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
